--- a/Testdata/TC_65.xlsx
+++ b/Testdata/TC_65.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>DBoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlktJ612vMMtDNjlDJMiS5jvNSjMixNTU1VMihbb2lQIIUaYqiKDZFekWfUhTodtEmQLrby78Ea+/2qb/QMxcOSUnOVtuFseac25w5c65j9Nb1PLQuSZzQiD2quDWnYhHmRwFl548qKT+ruvcrb3moe+2T8AjHeE44EFvAxZK964Q+qsw4X+zZ9tXVVe2qUYvic7vuOK79zqA/9mdkjquUJRwzn1QMV/B6roqH2sF8QDgOMMeK81GlN+7V2oT6HYANMMPnJK610oQykiRdximnJBGcMcGctDuD76mDefXa/ZqL7DV4TtlKaRgouhKlgms62JZM6Jx4dcfdrTq71YY7cd29Rn1vp167t1t/N2M0hKiPEz4m8SX1JWDM8Xwh2Z3dhuu6jfpOHdkbiUBWbgAPDcNgRC5pQoI2CcNkK4vY+gKbPodTb2dMB9kFXi3ozVU4iPFiNqE8JNupMRq0rDnTuuRCPLQfxcQH+72RSofkahhrs04WfcBOZjTmyw5ebi3rOCHxcCGMtB2rhzoR482QxPx4AXdNAnAFQHg8Tgmy70DmTB2a+PBNWUoC7wyHSZGphEQnUXyRLLBPDiGObSHjioURDsDhOE049ZNcwBoGHcXRAkTC7q0oDPZBbEa9AWNk9xgYWWzciqKLVfFlJJL3Km8YbnWOjfw1OBrPoqshC5fjdJr4MZ2SoNPKqDfikAhJzd1OEx7NQYschBSsAFnCPwjBVTDqEJ/OcXgUghkTrwFSSgDUTHl0Rnk7CtM5M/ZcgaITONGEXJsTmjUawvUyYfWI9VhGr1xhI6rMMIquzJ7rCGmEAriZ+JmXrSNWiTsAy65vHSNvRJxyn4ZQIYp3UYCWvWI8I4RvdAmFQSIZ7oua47WWYk9k5xAErgn+DVDPffjwQdVx4WfiOHvyB3Y2aNRlgfyACnO/6tZF1s7pMiQ6TOfDKcTwpTyT5wJuBYTgFGErxOwCoCeUzw6bmfYbMEid+U76dRyCaF2EeCnBxi5FGOoxP0wDopJAj51JpxS6aeo78WgN1Ie49hBmy8lyIZKBfQdFh5zhNIT6xCGNnOcZYgWMmsnFKk0RhI7jMLtjT1T/BMq/H8xrPiRIUeJqfjQXABuq7skY2UV6keV90mXnfczOU8ijxo6rcONhIgNMYswScRyTNlecbTMRyu5FpXNPXdYwle6kLisCLLJX6NCEzBdRjMMBGIbup0yWTF0TwMIDzGd6BdEbEj8zsp2zGq6yZpniryOTYaiOIXJ8MQwLUEklDqM6jQJRDkTinIMogGKPQzqNS262EQdXlpfAzOHE8bYsh9ktQLsJGea7ZCl6kHyh4cJrPTdDyBVqg0reeASd2I7TgL5KrpE88ojg0OpCI8qJ1WOXJOFzYNuzRiShAXxRHO5Zb5MpoRD20kY68LbmLvKh/Zi8l0JDvZSqNEHfMqRMADn1nDIcrhMaTM7gnRIch8sCoTpqP/KB7vZH/7r59dMXzz6//fjxqy8/+M/ff/niHz+9efIhfNz+5a83n/xCHVMRowmehkQqNGnt7jqNe+BpBoR0goAqH6Q+l7DTU1n1zRrp9lUu2t1e+6DfkhnFADN20VGkIhr6eBml+XKsDiE3kldqZ56gSLxJlqH0uoTtEFHqVRiKTvWSlKmL+LsYlS1ePv/85fM/3cmtDVYqPjuiqLy++LjuGp0pPmICUA1eNl/cqzo71Xq9QLxCg0YwJkE/Z+zUC7yG6zx06g3HNdk8MI68iWgVpSVN8Lm9wqdA7ShlPF4aFyiuM6R0/AmEiEGrUCgstIt++eNXf35cotLW1ZCyFFAuSmPlTXa2kKIPRxNrPDwetbvWpDsWfpLjCnRK+DcQ691NPJWcirEUh9+B4ViMxlYFur6KFZ1ZBPszawmRWIjDkrNtgqqN3lDkqpYHcZQu1I0UGHLoBkqTTTZybMg1EiftuZZ0ctQGcqXrzd++2MSgD6Ld7JhRbqa8IgyVMApUwOuo/eyfL7766MWzZ7dPf3bz1Q9LEvQ+ZvgBP4doKi6N20PK0/VmBYJOxtKYF873C/VFA0XreBRRxhPPvS+7Rr1CwOoKafI36s2h5EnB0l4AX4Ggt3HSveY6sL1DZJcBoOcCQ7WN8v7aAFQOz+3679/89vZXX9x++vTVR3+8+fgPN598+vL57149+b2KutvHT29/8kRn+dVCIHURXbtqAy05BPqWiEZL1G7r6/d/brGIW9B0WKnMSF+//1lBmFBUtie5ZGjqjCJlFdZIi8yCzyqoYnQo8RkW1QC0RQlrGApdxKIF9fNN3q0KUSLuJOJbvUk1TYgVQT/1bThJmThn/l/5NIsqqUcPnLpb11iljTjCFCcF0x+E0RSajAwhh6wVkhLXNzPktHK/g/6w1eznJEqJYRzATOaISVF8oKypFCWll2QrM1rkEMBC4+enoZiL18jWUUZyIY3ZesA8awYi/XmOIye4cn0sUcCMHseqIWL6xXKcLqAd5nqIvRsvH2cKDfCh6lWLLXG+7nXKeFgXsFAIy2gBkHiZmjRKpaleImZZ1c4eCtPkS8CVHnTAHPpRUnVal9BXxrbIO904juKNySfHZGQD6KQho9i5xQ2NvFPVdQf5XWWALOGZDzX76RNGHRISvt2LnZ1zD6LLN+aFu9+WtZcMw0Abc7vRw5glF1B8thSO8v++Wipna8YxNFbikWPrZ8ZsdB3BxLulNuooklGMgLC7fgfcp3HC3xGZQH8pyKmBnKoOVZKoD7k+9XbVGvB2Ubhd0jKLXK7ejqOwT+d0y6nQycK7LARMuVioDq63naOIynJIrqG/LEiAnDj9AVQNMfFsJ035K6RSwy8eaxJ6PuPbKvZgiklApk7Vn5J69V7g7FYfEtKoui78j/163XF2xEuPFg6Jg5KrLTexswvL/6bj/Rdm2k9XDBoAAA==</t>
+          <t>5BsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlXmR7bWOWgW52hEqWIcl1nJdiRI6sqSlSIYeW9ZYCCVKkKYqi2BTpFX1KUaDbRZsA6W4v/xKsvdun/kLPzPAylORs6S60WM65zZkz5zqL3rqZe9o1CSMa+I8rZs2oaMR3Apf6l48rMZtWzb3KWzbq3DjEO8UhnhMGxBpw+dHhTUQfV2aMLQ51fblc1pb1WhBe6pZhmPo7/d7ImZE5rlI/Yth3SCXjct/MVbFRy533CcMuZlhyPq50R91ai1CnDbA+9vElCWvNOKI+iaKOzyijJOKcIcGMtNr978mD2VZtr2YifQOeUzZj6rmSrkAp4QkdbEvGdE5sy7CMqrFftXbGxv6hZR7Wd2oHhvFuypgRoh6O2IiE19QRgBHD84VgN/atHfhr1neQvpUIZOUGsNHAc4fkmkbEbRHPi0pZRE8usOEwOHU5YxpIV3gTQQ9X4TjEi9mYMo+UZT8KQuKAoR609wlZDsLEfuNFD7DjGQ3Zqo1XpWWdRSQcLLg1yrHaqB34rOGRkJ0t4FKJC3cOCJuFMUH6PcicqU0jB76pHxPXnmIvUpkKSHQehFfRAjvkBAJW5zKWvhdgFzyL0YhRJ8oFbGDQaRgsQCTs3gw89wjEptRbMJnsrg9G5hs3g+BqXXwRiYQXCH+AW53jTP4GHI1mwXLge6tRPImckE6I226m1FtxiMdewt2KIxbMQYschCRMgazgD8TaOhi1iUPn2Dv1wIyRXQcpBQBqxCyYUtYKvHjuZ/Zcg6JzONGY3GQnzNZoANfrc6sHftdP6aUrbEUVGYbBMttzEyGMoIAbkZN62SZinbgNsPT6NjHiRvgpj6gHpUC9CwVa9IrRjBC21SUkBvGsd8SLi91c8T2RnkMQuCb4N0Ahbxp7VfhZxtgwDsUPds7QqOO7OZ1pVeumQpci0Uk8H0wghq/FmWwTcGsgBKfwmh72rwB6TtnspJFqvwWD5Jnvpd/EIYjWhYdXApzZRYWhru94sUtkEuj6U+GUXLeE+l482gD1IK55DiBTHHtQZxhkics8AayBUSO6WqdRQegs9NIrtHkVj6CMO+685kD+46Wq5gRzDtChep6PkK7S8yTukI5/2cP+ZQxpMjPTOjxzIB7g4xD7ET9PlhXXfGk7EUrNLrO1Le9iEAtvkXcRABbpa3RoTOaLIMReHwxDj2JflL4k5YMl+5jNkhUEp0ccxcopa8ZV1CxV/E1kIsrkMXgKV6NMgQoqfhjZMShEORDxc/YDF4o29ugkLHjRVhxcWV7hUn/ixytZ7dJbgLYREsh3yYr3EvkigY9XC2KbKUKsUAtUskfDnX1r16hbkJz5GokjDwn2tA40lIxoXf+aRGwObIfakETUhS+KvUPtbTIhFKJa2CiJq9LcKh86Csl7MTTGK6FKA/QtQooEkDIvqY+9TcIMkzPYFwSH3kohlEftBQ7Q3f3oX7e/fvby+ed3Hz95/eUH//n7L1/+46e3Tz+Ej7u//PX2k1/IY0piNMYTjwiFxs39fYP3ljkIcePqory7scME7OJCFPVsjZI2VCxanW7ruNcEj1KAKTtvGGIeDT28CuJ8OZKHEBuJK9VTT5Ak9ljIy9cFbJvwSi7DkHec16RIreLvY5S2ePXi81cv/nQvd2KwvHiYBwe7vGYY5ptqi2lu0GW1hXfysn9L5gRzp2rsVi1LIV6jQUMYd6Bdy+zUde26aRwYVt0wU/0BljryNqJ1VCJpjC/1NT4JagWxz8JV5gLqOkUKxx9DiGRoGQrKInHRL3/8+s9PClSJdRNIUQooF8Sh9CY9XQjRJ8OxNhqcDVsdbdwZcT/JcQqdFP4NxMnuWTwVnMr3Y+x9B4ZcPuJqFWjqKlow1Qh2ZtoKIlGJw4KzbYPKjR4ocl3L4zCIF/JGFIYcuoUyyyZbObbkGoET9txIOjlqC7nU9fZvX2xjSA6SuNmZT5k97De1uZ/5pYChAkaCFHwStZ/98+VXH718/vzu2c9uv/phQUKyTzbbgJ9DNKnLzO0h5SX1Zg2CzkfCmFfG95X6kgB5Z3gaUJ9FtrknmsJkhYDV5NLEv6g7h5InBAt7AXwNgt7GUeeGJYFtnyC9CAA9FxiqbZC3zxlA5vDcrv/+zW/vfvXF3afPXn/0x9uP/3D7yaevXvzu9dPfy6i7e/Ls7idPkyy/XgiELrwpl32gJmY8R+PRqPHarX39/s81P2AaNB1aLDLS1+9/pgjjior2JJcMTV2mSFGFDVKVmfNpiiqZDgW+jEU2AC1ewuoZRVLEggV18k3erXJRPO4E4lvdcTWOiBZAP/VtOEmROGf+X/kSFllSTx8ZlmklWKkNP8IER4rpj71gAk1GihAz1BpJgeubGXJasd9xb9Bs9HISqcQgdGHkMvggyD9QN0rbymxayCGAhWbPiT0+6m6QbaJQ+qWkLj2ZGacNl6c82zAMsyp+SpkrUMDYHYayCfKT18ZRvIAWmCVz6f148d6iNL0nsj9V2+B83W0X8bBWsFD8imgOEHiRjhKUTE3diI+nsoU94abJl4ArvNGAOZIHRdldXUMvGeo813TCMAi3Jpwck5L1oXuGLKLnFs9odL6l7LTd/K5SQJrksg/eq2e5MGgTj7DSr20pdz+4fjAv3H1Z1m408NzEmOXGjcwsuQD1yZE7SlllGmEIbRN/oSj9Rtij/lW33OntiUUeYeJM8W7d3MF4MsXT3fpkgh/V3R1Sh0wphfL5k4vgkwuf3cptAs1ikT2ftIcwe5eUJg0sGPkwCpYSAZkk9myNjmgYsXd4ikq+JOQig1zI1lmQyA+xvkjXgNfVvfSC0ml6YfJxOvB6dE5LjqtGmoOKQsALFgvZWpa9Tyh5J+QGGl9FAiTryQ+gnPFRrJw0GVSQ4zP+VNYonpQWp6fMp4DnfvUw7o4LbdnDucVDL/X+DwVE4/VQEV0/opczVvZerYODOtkjVtWaOk51BxZVKMaTqounB6ZhTOvursUf6BLhUBwoWZbchJcUGsFYUZ5PX/u/Ovu/2t+OyuQbAAA=</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -76,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -373,54 +374,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
-        <v>3271.34</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>6384.48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>7111.74</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>8354.02</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>10540.67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>16421.36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>22352.63</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1">
+      <c r="A1" s="2">
         <v>37962.97</v>
       </c>
     </row>
@@ -428,4 +389,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>1</EndRow>
+          <EndCol>1</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55168782-2414-441F-BB92-E14867C0B5C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_65.xlsx
+++ b/Testdata/TC_65.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>5BsAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlXmR7bWOWgW52hEqWIcl1nJdiRI6sqSlSIYeW9ZYCCVKkKYqi2BTpFX1KUaDbRZsA6W4v/xKsvdun/kLPzPAylORs6S60WM65zZkz5zqL3rqZe9o1CSMa+I8rZs2oaMR3Apf6l48rMZtWzb3KWzbq3DjEO8UhnhMGxBpw+dHhTUQfV2aMLQ51fblc1pb1WhBe6pZhmPo7/d7ImZE5rlI/Yth3SCXjct/MVbFRy533CcMuZlhyPq50R91ai1CnDbA+9vElCWvNOKI+iaKOzyijJOKcIcGMtNr978mD2VZtr2YifQOeUzZj6rmSrkAp4QkdbEvGdE5sy7CMqrFftXbGxv6hZR7Wd2oHhvFuypgRoh6O2IiE19QRgBHD84VgN/atHfhr1neQvpUIZOUGsNHAc4fkmkbEbRHPi0pZRE8usOEwOHU5YxpIV3gTQQ9X4TjEi9mYMo+UZT8KQuKAoR609wlZDsLEfuNFD7DjGQ3Zqo1XpWWdRSQcLLg1yrHaqB34rOGRkJ0t4FKJC3cOCJuFMUH6PcicqU0jB76pHxPXnmIvUpkKSHQehFfRAjvkBAJW5zKWvhdgFzyL0YhRJ8oFbGDQaRgsQCTs3gw89wjEptRbMJnsrg9G5hs3g+BqXXwRiYQXCH+AW53jTP4GHI1mwXLge6tRPImckE6I226m1FtxiMdewt2KIxbMQYschCRMgazgD8TaOhi1iUPn2Dv1wIyRXQcpBQBqxCyYUtYKvHjuZ/Zcg6JzONGY3GQnzNZoANfrc6sHftdP6aUrbEUVGYbBMttzEyGMoIAbkZN62SZinbgNsPT6NjHiRvgpj6gHpUC9CwVa9IrRjBC21SUkBvGsd8SLi91c8T2RnkMQuCb4N0Ahbxp7VfhZxtgwDsUPds7QqOO7OZ1pVeumQpci0Uk8H0wghq/FmWwTcGsgBKfwmh72rwB6TtnspJFqvwWD5Jnvpd/EIYjWhYdXApzZRYWhru94sUtkEuj6U+GUXLeE+l482gD1IK55DiBTHHtQZxhkics8AayBUSO6WqdRQegs9NIrtHkVj6CMO+685kD+46Wq5gRzDtChep6PkK7S8yTukI5/2cP+ZQxpMjPTOjxzIB7g4xD7ET9PlhXXfGk7EUrNLrO1Le9iEAtvkXcRABbpa3RoTOaLIMReHwxDj2JflL4k5YMl+5jNkhUEp0ccxcopa8ZV1CxV/E1kIsrkMXgKV6NMgQoqfhjZMShEORDxc/YDF4o29ugkLHjRVhxcWV7hUn/ixytZ7dJbgLYREsh3yYr3EvkigY9XC2KbKUKsUAtUskfDnX1r16hbkJz5GokjDwn2tA40lIxoXf+aRGwObIfakETUhS+KvUPtbTIhFKJa2CiJq9LcKh86Csl7MTTGK6FKA/QtQooEkDIvqY+9TcIMkzPYFwSH3kohlEftBQ7Q3f3oX7e/fvby+ed3Hz95/eUH//n7L1/+46e3Tz+Ej7u//PX2k1/IY0piNMYTjwiFxs39fYP3ljkIcePqory7scME7OJCFPVsjZI2VCxanW7ruNcEj1KAKTtvGGIeDT28CuJ8OZKHEBuJK9VTT5Ak9ljIy9cFbJvwSi7DkHec16RIreLvY5S2ePXi81cv/nQvd2KwvHiYBwe7vGYY5ptqi2lu0GW1hXfysn9L5gRzp2rsVi1LIV6jQUMYd6Bdy+zUde26aRwYVt0wU/0BljryNqJ1VCJpjC/1NT4JagWxz8JV5gLqOkUKxx9DiGRoGQrKInHRL3/8+s9PClSJdRNIUQooF8Sh9CY9XQjRJ8OxNhqcDVsdbdwZcT/JcQqdFP4NxMnuWTwVnMr3Y+x9B4ZcPuJqFWjqKlow1Qh2ZtoKIlGJw4KzbYPKjR4ocl3L4zCIF/JGFIYcuoUyyyZbObbkGoET9txIOjlqC7nU9fZvX2xjSA6SuNmZT5k97De1uZ/5pYChAkaCFHwStZ/98+VXH718/vzu2c9uv/phQUKyTzbbgJ9DNKnLzO0h5SX1Zg2CzkfCmFfG95X6kgB5Z3gaUJ9FtrknmsJkhYDV5NLEv6g7h5InBAt7AXwNgt7GUeeGJYFtnyC9CAA9FxiqbZC3zxlA5vDcrv/+zW/vfvXF3afPXn/0x9uP/3D7yaevXvzu9dPfy6i7e/Ls7idPkyy/XgiELrwpl32gJmY8R+PRqPHarX39/s81P2AaNB1aLDLS1+9/pgjjior2JJcMTV2mSFGFDVKVmfNpiiqZDgW+jEU2AC1ewuoZRVLEggV18k3erXJRPO4E4lvdcTWOiBZAP/VtOEmROGf+X/kSFllSTx8ZlmklWKkNP8IER4rpj71gAk1GihAz1BpJgeubGXJasd9xb9Bs9HISqcQgdGHkMvggyD9QN0rbymxayCGAhWbPiT0+6m6QbaJQ+qWkLj2ZGacNl6c82zAMsyp+SpkrUMDYHYayCfKT18ZRvIAWmCVz6f148d6iNL0nsj9V2+B83W0X8bBWsFD8imgOEHiRjhKUTE3diI+nsoU94abJl4ArvNGAOZIHRdldXUMvGeo813TCMAi3Jpwck5L1oXuGLKLnFs9odL6l7LTd/K5SQJrksg/eq2e5MGgTj7DSr20pdz+4fjAv3H1Z1m408NzEmOXGjcwsuQD1yZE7SlllGmEIbRN/oSj9Rtij/lW33OntiUUeYeJM8W7d3MF4MsXT3fpkgh/V3R1Sh0wphfL5k4vgkwuf3cptAs1ikT2ftIcwe5eUJg0sGPkwCpYSAZkk9myNjmgYsXd4ikq+JOQig1zI1lmQyA+xvkjXgNfVvfSC0ml6YfJxOvB6dE5LjqtGmoOKQsALFgvZWpa9Tyh5J+QGGl9FAiTryQ+gnPFRrJw0GVSQ4zP+VNYonpQWp6fMp4DnfvUw7o4LbdnDucVDL/X+DwVE4/VQEV0/opczVvZerYODOtkjVtWaOk51BxZVKMaTqounB6ZhTOvursUf6BLhUBwoWZbchJcUGsFYUZ5PX/u/Ovu/2t+OyuQbAAA=</t>
+          <t>DBoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlktJ612vMMtDNjlDJMiS5jvNSjMixNTU1VMihbb2lQIIUaYqiKDZFekWfUhTodtEmQLrby78Ea+/2qb/QMxcOSUnOVtuFseac25w5c65j9Nb1PLQuSZzQiD2quDWnYhHmRwFl548qKT+ruvcrb3moe+2T8AjHeE44EFvAxZK964Q+qsw4X+zZ9tXVVe2qUYvic7vuOK79zqA/9mdkjquUJRwzn1QMV/B6roqH2sF8QDgOMMeK81GlN+7V2oT6HYANMMPnJK610oQykiRdximnJBGcMcGctDuD76mDefXa/ZqL7DV4TtlKaRgouhKlgms62JZM6Jx4dcfdrTq71YY7cd29Rn1vp167t1t/N2M0hKiPEz4m8SX1JWDM8Xwh2Z3dhuu6jfpOHdkbiUBWbgAPDcNgRC5pQoI2CcNkK4vY+gKbPodTb2dMB9kFXi3ozVU4iPFiNqE8JNupMRq0rDnTuuRCPLQfxcQH+72RSofkahhrs04WfcBOZjTmyw5ebi3rOCHxcCGMtB2rhzoR482QxPx4AXdNAnAFQHg8Tgmy70DmTB2a+PBNWUoC7wyHSZGphEQnUXyRLLBPDiGObSHjioURDsDhOE049ZNcwBoGHcXRAkTC7q0oDPZBbEa9AWNk9xgYWWzciqKLVfFlJJL3Km8YbnWOjfw1OBrPoqshC5fjdJr4MZ2SoNPKqDfikAhJzd1OEx7NQYschBSsAFnCPwjBVTDqEJ/OcXgUghkTrwFSSgDUTHl0Rnk7CtM5M/ZcgaITONGEXJsTmjUawvUyYfWI9VhGr1xhI6rMMIquzJ7rCGmEAriZ+JmXrSNWiTsAy65vHSNvRJxyn4ZQIYp3UYCWvWI8I4RvdAmFQSIZ7oua47WWYk9k5xAErgn+DVDPffjwQdVx4WfiOHvyB3Y2aNRlgfyACnO/6tZF1s7pMiQ6TOfDKcTwpTyT5wJuBYTgFGErxOwCoCeUzw6bmfYbMEid+U76dRyCaF2EeCnBxi5FGOoxP0wDopJAj51JpxS6aeo78WgN1Ie49hBmy8lyIZKBfQdFh5zhNIT6xCGNnOcZYgWMmsnFKk0RhI7jMLtjT1T/BMq/H8xrPiRIUeJqfjQXABuq7skY2UV6keV90mXnfczOU8ijxo6rcONhIgNMYswScRyTNlecbTMRyu5FpXNPXdYwle6kLisCLLJX6NCEzBdRjMMBGIbup0yWTF0TwMIDzGd6BdEbEj8zsp2zGq6yZpniryOTYaiOIXJ8MQwLUEklDqM6jQJRDkTinIMogGKPQzqNS262EQdXlpfAzOHE8bYsh9ktQLsJGea7ZCl6kHyh4cJrPTdDyBVqg0reeASd2I7TgL5KrpE88ojg0OpCI8qJ1WOXJOFzYNuzRiShAXxRHO5Zb5MpoRD20kY68LbmLvKh/Zi8l0JDvZSqNEHfMqRMADn1nDIcrhMaTM7gnRIch8sCoTpqP/KB7vZH/7r59dMXzz6//fjxqy8/+M/ff/niHz+9efIhfNz+5a83n/xCHVMRowmehkQqNGnt7jqNe+BpBoR0goAqH6Q+l7DTU1n1zRrp9lUu2t1e+6DfkhnFADN20VGkIhr6eBml+XKsDiE3kldqZ56gSLxJlqH0uoTtEFHqVRiKTvWSlKmL+LsYlS1ePv/85fM/3cmtDVYqPjuiqLy++LjuGp0pPmICUA1eNl/cqzo71Xq9QLxCg0YwJkE/Z+zUC7yG6zx06g3HNdk8MI68iWgVpSVN8Lm9wqdA7ShlPF4aFyiuM6R0/AmEiEGrUCgstIt++eNXf35cotLW1ZCyFFAuSmPlTXa2kKIPRxNrPDwetbvWpDsWfpLjCnRK+DcQ691NPJWcirEUh9+B4ViMxlYFur6KFZ1ZBPszawmRWIjDkrNtgqqN3lDkqpYHcZQu1I0UGHLoBkqTTTZybMg1EiftuZZ0ctQGcqXrzd++2MSgD6Ld7JhRbqa8IgyVMApUwOuo/eyfL7766MWzZ7dPf3bz1Q9LEvQ+ZvgBP4doKi6N20PK0/VmBYJOxtKYF873C/VFA0XreBRRxhPPvS+7Rr1CwOoKafI36s2h5EnB0l4AX4Ggt3HSveY6sL1DZJcBoOcCQ7WN8v7aAFQOz+3679/89vZXX9x++vTVR3+8+fgPN598+vL57149+b2KutvHT29/8kRn+dVCIHURXbtqAy05BPqWiEZL1G7r6/d/brGIW9B0WKnMSF+//1lBmFBUtie5ZGjqjCJlFdZIi8yCzyqoYnQo8RkW1QC0RQlrGApdxKIF9fNN3q0KUSLuJOJbvUk1TYgVQT/1bThJmThn/l/5NIsqqUcPnLpb11iljTjCFCcF0x+E0RSajAwhh6wVkhLXNzPktHK/g/6w1eznJEqJYRzATOaISVF8oKypFCWll2QrM1rkEMBC4+enoZiL18jWUUZyIY3ZesA8awYi/XmOIye4cn0sUcCMHseqIWL6xXKcLqAd5nqIvRsvH2cKDfCh6lWLLXG+7nXKeFgXsFAIy2gBkHiZmjRKpaleImZZ1c4eCtPkS8CVHnTAHPpRUnVal9BXxrbIO904juKNySfHZGQD6KQho9i5xQ2NvFPVdQf5XWWALOGZDzX76RNGHRISvt2LnZ1zD6LLN+aFu9+WtZcMw0Abc7vRw5glF1B8thSO8v++Wipna8YxNFbikWPrZ8ZsdB3BxLulNuooklGMgLC7fgfcp3HC3xGZQH8pyKmBnKoOVZKoD7k+9XbVGvB2Ubhd0jKLXK7ejqOwT+d0y6nQycK7LARMuVioDq63naOIynJIrqG/LEiAnDj9AVQNMfFsJ035K6RSwy8eaxJ6PuPbKvZgiklApk7Vn5J69V7g7FYfEtKoui78j/163XF2xEuPFg6Jg5KrLTexswvL/6bj/Rdm2k9XDBoAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -76,9 +76,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -374,14 +373,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
+        <v>3271.34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>6384.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>7111.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>8354.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>10540.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>16421.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>22352.63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
         <v>37962.97</v>
       </c>
     </row>
@@ -389,37 +428,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>1</EndRow>
-          <EndCol>1</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55168782-2414-441F-BB92-E14867C0B5C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>